--- a/Lista_Frequancia.xlsx
+++ b/Lista_Frequancia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 C - Com</t>
+          <t>2 B - SER</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gessielly Monteiro Oliveira</t>
+          <t>Francisco Gustavo De Sousa Ferreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,12 +490,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>1 C - Com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>João Pedro Maia Silveira</t>
+          <t>Gessielly Monteiro Oliveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,12 +517,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 C - Com</t>
+          <t>1 A - Com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Felipe Tavares de Oliveira Sousa</t>
+          <t>João Pedro Maia Silveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>14:29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>1 C - Com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Evellyn Maiara Pereira de Sousa</t>
+          <t>Felipe Tavares de Oliveira Sousa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19/06/2023</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,12 +571,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2 B - Com</t>
+          <t>1 A - Com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ericka Renally Abrantes De Lima</t>
+          <t>Evellyn Maiara Pereira de Sousa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1 A - SER</t>
+          <t>2 B - Com</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Irla Gabriele Gomes de Lima </t>
+          <t>Ericka Renally Abrantes De Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -625,22 +625,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 B - Com</t>
+          <t>1 A - SER</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Darlan Alves Marcelino Dias</t>
+          <t xml:space="preserve">Irla Gabriele Gomes de Lima </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18/06/2023</t>
+          <t>19/06/2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,22 +652,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3 A - SER</t>
+          <t>2 B - Com</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Igor Venâncius Andrade Oliveira</t>
+          <t>Darlan Alves Marcelino Dias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>18/06/2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,12 +679,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2 B - SER</t>
+          <t>3 A - SER</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Danilo Da Silva Santos</t>
+          <t>Igor Venâncius Andrade Oliveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>15:33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3 B - Com</t>
+          <t>2 B - SER</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Glênda Dos Santos Brito</t>
+          <t>Danilo Da Silva Santos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Roberta Pereira Dos Santos</t>
+          <t>Maria Glênda Dos Santos Brito</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>14:46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,12 +760,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2 B - SER</t>
+          <t>3 B - Com</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Samuel Kauan Lima Da Silva</t>
+          <t>Roberta Pereira Dos Santos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,12 +787,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2 A - SER</t>
+          <t>2 B - SER</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Maria Clara Fernandes Lins</t>
+          <t>Samuel Kauan Lima Da Silva</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10:35</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,12 +814,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>2 A - SER</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Carlos Hemrique Bento de Lima</t>
+          <t>Maria Clara Fernandes Lins</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>10:35</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,12 +841,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3 A - SER</t>
+          <t>1 A - Com</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Isadora Gadelha Ferreira Silva</t>
+          <t>Carlos Hemrique Bento de Lima</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2 B - Com</t>
+          <t>3 A - SER</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Isabelle Helena Alves De Sá</t>
+          <t>Isadora Gadelha Ferreira Silva</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Guilherme Lira Oliveira</t>
+          <t>Isabelle Helena Alves De Sá</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -922,12 +922,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2 A - SER</t>
+          <t>2 B - Com</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Heloísa Quirino De Sousa</t>
+          <t>Guilherme Lira Oliveira</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,12 +949,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2 B - SER</t>
+          <t>2 A - SER</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rafael Rodrigues Mariz</t>
+          <t>Heloísa Quirino De Sousa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -976,12 +976,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2 B - Com</t>
+          <t>2 B - SER</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Isabelle Helena Alves De Sá</t>
+          <t>Rafael Rodrigues Mariz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1003,12 +1003,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3 A - SER</t>
+          <t>2 B - Com</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Inara Ellem Matias Da Silva</t>
+          <t>Isabelle Helena Alves De Sá</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1030,22 +1030,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2 B - SER</t>
+          <t>3 A - SER</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Danilo Da Silva Santos</t>
+          <t>Inara Ellem Matias Da Silva</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22:46</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,12 +1057,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>2 B - SER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>José Manoel Pereira de Sousa Neto</t>
+          <t>Danilo Da Silva Santos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22:13</t>
+          <t>22:46</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Francisca Lauany Gonçalves da Silva</t>
+          <t>José Manoel Pereira de Sousa Neto</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22:06</t>
+          <t>22:13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Carlos Hemrique Bento de Lima</t>
+          <t>Francisca Lauany Gonçalves da Silva</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1138,12 +1138,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 A - Com</t>
+          <t>1 A - Com</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Emilly Adrielly Inacio Douetts</t>
+          <t>Carlos Hemrique Bento de Lima</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>22:06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,12 +1165,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2 A - SER</t>
+          <t>2 A - Com</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Eric Rodrigues De Oliveira</t>
+          <t>Emilly Adrielly Inacio Douetts</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,12 +1192,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>2 A - SER</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Carlos Hemrique Bento de Lima</t>
+          <t>Eric Rodrigues De Oliveira</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>21:58</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>José Manoel Pereira de Sousa Neto</t>
+          <t>Carlos Hemrique Bento de Lima</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21:44</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>João Pedro Maia Silveira</t>
+          <t>José Manoel Pereira de Sousa Neto</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1273,12 +1273,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3 A - SER</t>
+          <t>1 A - Com</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Isabella Gadelha Ferreira Silva</t>
+          <t>João Pedro Maia Silveira</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21:43</t>
+          <t>21:44</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1300,12 +1300,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 C - Com</t>
+          <t>3 A - SER</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Julia Beatriz Burghi Nascimento</t>
+          <t>Isabella Gadelha Ferreira Silva</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21:40</t>
+          <t>21:43</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1354,12 +1354,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2 A - Com</t>
+          <t>1 C - Com</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ana Beatriz De Sousa Araújo</t>
+          <t>Julia Beatriz Burghi Nascimento</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21:37</t>
+          <t>21:40</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1381,12 +1381,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>2 A - Com</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Carlos Hemrique Bento de Lima</t>
+          <t>Ana Beatriz De Sousa Araújo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>21:37</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21:32</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:32</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gabriel Lucindo paulino</t>
+          <t>Carlos Hemrique Bento de Lima</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20:29</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,12 +1489,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 C - Com</t>
+          <t>1 A - Com</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Julia Beatriz Burghi Nascimento</t>
+          <t>Gabriel Lucindo paulino</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>20:29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,12 +1516,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>1 C - Com</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Carlos Hemrique Bento de Lima</t>
+          <t>Julia Beatriz Burghi Nascimento</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1543,12 +1543,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3 B - Com</t>
+          <t>1 A - Com</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Maria Glênda Dos Santos Brito</t>
+          <t>Carlos Hemrique Bento de Lima</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1570,12 +1570,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 B - Com</t>
+          <t>3 B - Com</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Evelin Lavine da Silva Araújo</t>
+          <t>Maria Glênda Dos Santos Brito</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1597,12 +1597,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2 C - Com</t>
+          <t>1 B - Com</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Maria Clara Gomes De Sousa</t>
+          <t>Evelin Lavine da Silva Araújo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19:25</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1624,12 +1624,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1 A - Com</t>
+          <t>2 C - Com</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Elton Icaro Ferreira de Assis</t>
+          <t>Maria Clara Gomes De Sousa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19:23</t>
+          <t>19:25</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1651,25 +1651,52 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>1 A - Com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Elton Icaro Ferreira de Assis</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Muito Atrasado</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>2 B - SER</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Marcos Oliveira De Sousa Júnior</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>15/06/2023</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>15/06/2023</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>19:17</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Muito Atrasado</t>
         </is>
